--- a/data/pca/factorExposure/factorExposure_2017-06-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02355972894170589</v>
+        <v>-0.008702934035207263</v>
       </c>
       <c r="C2">
-        <v>0.004866035909607148</v>
+        <v>0.04415385638489892</v>
       </c>
       <c r="D2">
-        <v>0.03381860954891017</v>
+        <v>-0.02997749131851616</v>
       </c>
       <c r="E2">
-        <v>-0.01035013729795868</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03320346252334418</v>
+      </c>
+      <c r="F2">
+        <v>-0.010839034503548</v>
+      </c>
+      <c r="G2">
+        <v>-0.08546890885455337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01835629118066313</v>
+        <v>-0.04366167456718026</v>
       </c>
       <c r="C3">
-        <v>-0.04789659311086622</v>
+        <v>0.09429897526259064</v>
       </c>
       <c r="D3">
-        <v>0.08721273601151146</v>
+        <v>-0.01664622931834445</v>
       </c>
       <c r="E3">
-        <v>-0.02163924150913537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09933970083730749</v>
+      </c>
+      <c r="F3">
+        <v>-0.009517215332440123</v>
+      </c>
+      <c r="G3">
+        <v>-0.1627406907275926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02478683133671734</v>
+        <v>-0.05563853280556679</v>
       </c>
       <c r="C4">
-        <v>-0.01194511041109336</v>
+        <v>0.06828939753698691</v>
       </c>
       <c r="D4">
-        <v>0.08767997028951544</v>
+        <v>-0.02453304609006336</v>
       </c>
       <c r="E4">
-        <v>0.0163119429823524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02605130958448678</v>
+      </c>
+      <c r="F4">
+        <v>-0.01237772619660965</v>
+      </c>
+      <c r="G4">
+        <v>-0.09234249279418166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01468771623720127</v>
+        <v>-0.03725595829211768</v>
       </c>
       <c r="C6">
-        <v>0.001460042851034838</v>
+        <v>0.05321290217988719</v>
       </c>
       <c r="D6">
-        <v>0.08417437226433525</v>
+        <v>-0.01659510848349369</v>
       </c>
       <c r="E6">
-        <v>0.008528674232880638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02597802585099298</v>
+      </c>
+      <c r="F6">
+        <v>-0.01067257975823932</v>
+      </c>
+      <c r="G6">
+        <v>-0.06393318480285652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01161258619865181</v>
+        <v>-0.01974213163850832</v>
       </c>
       <c r="C7">
-        <v>-0.006060506448272452</v>
+        <v>0.04110746761241324</v>
       </c>
       <c r="D7">
-        <v>0.04496218618180028</v>
+        <v>-0.01327830145956722</v>
       </c>
       <c r="E7">
-        <v>0.05844476593818911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.004703218527669804</v>
+      </c>
+      <c r="F7">
+        <v>0.002741484792480881</v>
+      </c>
+      <c r="G7">
+        <v>-0.1236375153356003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0007226230332113636</v>
+        <v>-0.002332592051519364</v>
       </c>
       <c r="C8">
-        <v>0.0005236154701351831</v>
+        <v>0.02425168244782882</v>
       </c>
       <c r="D8">
-        <v>0.007498874127794512</v>
+        <v>-0.003979961169599036</v>
       </c>
       <c r="E8">
-        <v>0.008441391932523707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02171788233816913</v>
+      </c>
+      <c r="F8">
+        <v>-0.007052756274854421</v>
+      </c>
+      <c r="G8">
+        <v>-0.06038203341748281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.017059501403108</v>
+        <v>-0.03261449039281219</v>
       </c>
       <c r="C9">
-        <v>-0.01269995444599144</v>
+        <v>0.04959157749016887</v>
       </c>
       <c r="D9">
-        <v>0.06554558093120859</v>
+        <v>-0.01688213323322779</v>
       </c>
       <c r="E9">
-        <v>0.006825686947271224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01739396555057382</v>
+      </c>
+      <c r="F9">
+        <v>-0.01041314477824203</v>
+      </c>
+      <c r="G9">
+        <v>-0.08923835011688035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02692243281936603</v>
+        <v>-0.09897914146380755</v>
       </c>
       <c r="C10">
-        <v>-0.1731572931405538</v>
+        <v>-0.1808678481619061</v>
       </c>
       <c r="D10">
-        <v>-0.1006164814183941</v>
+        <v>0.01448626119339006</v>
       </c>
       <c r="E10">
-        <v>-0.0133524427378336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02040294212233284</v>
+      </c>
+      <c r="F10">
+        <v>0.02119935497376311</v>
+      </c>
+      <c r="G10">
+        <v>-0.06004992077174586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001040386972282255</v>
+        <v>-0.03404053375165786</v>
       </c>
       <c r="C11">
-        <v>-0.002413723734598509</v>
+        <v>0.05485003778104081</v>
       </c>
       <c r="D11">
-        <v>0.05645342071659098</v>
+        <v>-0.00242156951819068</v>
       </c>
       <c r="E11">
-        <v>-0.002982134407544725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009280173548496053</v>
+      </c>
+      <c r="F11">
+        <v>-0.02214685197595068</v>
+      </c>
+      <c r="G11">
+        <v>-0.07315827445400297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005867608707498816</v>
+        <v>-0.03551243850814866</v>
       </c>
       <c r="C12">
-        <v>-0.004024364282644403</v>
+        <v>0.04901977309892667</v>
       </c>
       <c r="D12">
-        <v>0.05187132655990011</v>
+        <v>-0.006187523622476038</v>
       </c>
       <c r="E12">
-        <v>0.01000680545918113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0009142250707417196</v>
+      </c>
+      <c r="F12">
+        <v>-0.001434182501915992</v>
+      </c>
+      <c r="G12">
+        <v>-0.06965044400466783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02458165399273172</v>
+        <v>-0.01488276869536653</v>
       </c>
       <c r="C13">
-        <v>-0.01582711540186122</v>
+        <v>0.03975974564162349</v>
       </c>
       <c r="D13">
-        <v>0.03596642775179806</v>
+        <v>-0.02636467514761104</v>
       </c>
       <c r="E13">
-        <v>-0.01048301649923983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03010254052583676</v>
+      </c>
+      <c r="F13">
+        <v>-0.007772088273114346</v>
+      </c>
+      <c r="G13">
+        <v>-0.1059507870371246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009097597771937129</v>
+        <v>-0.00782204691820238</v>
       </c>
       <c r="C14">
-        <v>-0.01324280686746683</v>
+        <v>0.02797497697154204</v>
       </c>
       <c r="D14">
-        <v>0.01583684450258887</v>
+        <v>-0.009692713960144938</v>
       </c>
       <c r="E14">
-        <v>0.007428390273044008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0008223797260445573</v>
+      </c>
+      <c r="F14">
+        <v>0.006970284296339943</v>
+      </c>
+      <c r="G14">
+        <v>-0.09131403287343973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001951680254629719</v>
+        <v>-0.03283070026994819</v>
       </c>
       <c r="C16">
-        <v>-0.008409548791224825</v>
+        <v>0.04857143760957624</v>
       </c>
       <c r="D16">
-        <v>0.05404461352038571</v>
+        <v>-0.001937211169585643</v>
       </c>
       <c r="E16">
-        <v>0.007849746218632025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007885684324997758</v>
+      </c>
+      <c r="F16">
+        <v>-0.002929606028454848</v>
+      </c>
+      <c r="G16">
+        <v>-0.07684604474909937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01543485230318194</v>
+        <v>-0.02018199213172215</v>
       </c>
       <c r="C19">
-        <v>-0.01686767225465418</v>
+        <v>0.05274665296877076</v>
       </c>
       <c r="D19">
-        <v>0.03901196709195409</v>
+        <v>-0.01901351869528478</v>
       </c>
       <c r="E19">
-        <v>0.002446904254875256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06752741274714216</v>
+      </c>
+      <c r="F19">
+        <v>-0.02261613068247981</v>
+      </c>
+      <c r="G19">
+        <v>-0.1231426300842457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01151696906529183</v>
+        <v>-0.01391311962246751</v>
       </c>
       <c r="C20">
-        <v>-0.005159710554916435</v>
+        <v>0.03907885792600413</v>
       </c>
       <c r="D20">
-        <v>0.03260981198839776</v>
+        <v>-0.01425206126905697</v>
       </c>
       <c r="E20">
-        <v>-0.01295015397992455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02844543706827878</v>
+      </c>
+      <c r="F20">
+        <v>0.009531119720214363</v>
+      </c>
+      <c r="G20">
+        <v>-0.09741893802280088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01611398153816461</v>
+        <v>-0.01262086184793505</v>
       </c>
       <c r="C21">
-        <v>-0.01734210599224713</v>
+        <v>0.03996077684460438</v>
       </c>
       <c r="D21">
-        <v>0.03697800697255279</v>
+        <v>-0.018510882170925</v>
       </c>
       <c r="E21">
-        <v>0.01143345991618071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04094131351621406</v>
+      </c>
+      <c r="F21">
+        <v>-0.0002834420330876964</v>
+      </c>
+      <c r="G21">
+        <v>-0.1254980721340243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0006143728075068291</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002557423832049995</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002552980604234516</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0008920692934292372</v>
+      </c>
+      <c r="F22">
+        <v>-0.0002095897827890188</v>
+      </c>
+      <c r="G22">
+        <v>-0.002192582040015189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.000618711634430692</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002553631417934941</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002554306436893746</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0008975284296251532</v>
+      </c>
+      <c r="F23">
+        <v>-0.0002078153230009381</v>
+      </c>
+      <c r="G23">
+        <v>-0.002201845280027699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004572390414494034</v>
+        <v>-0.02758102863459487</v>
       </c>
       <c r="C24">
-        <v>0.00336286042272626</v>
+        <v>0.05129368811865286</v>
       </c>
       <c r="D24">
-        <v>0.05182137069552828</v>
+        <v>-0.007204885428398142</v>
       </c>
       <c r="E24">
-        <v>0.006223597995241421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.00497709376905949</v>
+      </c>
+      <c r="F24">
+        <v>-0.01458702365234253</v>
+      </c>
+      <c r="G24">
+        <v>-0.07633096851303613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01285134209456868</v>
+        <v>-0.04221422829607791</v>
       </c>
       <c r="C25">
-        <v>-0.01347416996771021</v>
+        <v>0.0590128887169081</v>
       </c>
       <c r="D25">
-        <v>0.05743650357337024</v>
+        <v>-0.01113062487852349</v>
       </c>
       <c r="E25">
-        <v>0.004886538384185214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.002123200433078336</v>
+      </c>
+      <c r="F25">
+        <v>-0.008456438728136565</v>
+      </c>
+      <c r="G25">
+        <v>-0.08291941142241284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02346219348027992</v>
+        <v>-0.01377841345703001</v>
       </c>
       <c r="C26">
-        <v>-0.006976256826432174</v>
+        <v>0.01165133125311606</v>
       </c>
       <c r="D26">
-        <v>0.002311532027020581</v>
+        <v>-0.02384430452143796</v>
       </c>
       <c r="E26">
-        <v>0.007811694537704423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005313686178998199</v>
+      </c>
+      <c r="F26">
+        <v>0.007939437919309646</v>
+      </c>
+      <c r="G26">
+        <v>-0.0722873868224428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05132916816505243</v>
+        <v>-0.1269340657346195</v>
       </c>
       <c r="C28">
-        <v>-0.2413231287591279</v>
+        <v>-0.2357000918262999</v>
       </c>
       <c r="D28">
-        <v>-0.1334784967062374</v>
+        <v>0.005374506776330802</v>
       </c>
       <c r="E28">
-        <v>0.009180982095954006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.007190739160694061</v>
+      </c>
+      <c r="F28">
+        <v>0.01698571262803576</v>
+      </c>
+      <c r="G28">
+        <v>-0.06519824614363967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009490487903628709</v>
+        <v>-0.009151566578783828</v>
       </c>
       <c r="C29">
-        <v>-0.01724768011377336</v>
+        <v>0.02176515239326407</v>
       </c>
       <c r="D29">
-        <v>0.0141852740086226</v>
+        <v>-0.008638353559921902</v>
       </c>
       <c r="E29">
-        <v>0.002338540261646398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0004678313771475271</v>
+      </c>
+      <c r="F29">
+        <v>0.01485279478028876</v>
+      </c>
+      <c r="G29">
+        <v>-0.08227847095932174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02431844249070217</v>
+        <v>-0.04083533109796517</v>
       </c>
       <c r="C30">
-        <v>0.002960300714062917</v>
+        <v>0.06875112273373915</v>
       </c>
       <c r="D30">
-        <v>0.09534493265602045</v>
+        <v>-0.02897765448144064</v>
       </c>
       <c r="E30">
-        <v>-0.04522756303809267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05157488985993797</v>
+      </c>
+      <c r="F30">
+        <v>-0.0497576501724331</v>
+      </c>
+      <c r="G30">
+        <v>-0.0923031813044785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01138901144119474</v>
+        <v>-0.05253182521015325</v>
       </c>
       <c r="C31">
-        <v>-0.03905417251244635</v>
+        <v>0.03756807789656216</v>
       </c>
       <c r="D31">
-        <v>0.03908808119207324</v>
+        <v>-0.003664968525122353</v>
       </c>
       <c r="E31">
-        <v>0.009115443909599875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.003202740022191547</v>
+      </c>
+      <c r="F31">
+        <v>0.03952150522894723</v>
+      </c>
+      <c r="G31">
+        <v>-0.08116628539582137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005005341616511269</v>
+        <v>-0.001209912336551438</v>
       </c>
       <c r="C32">
-        <v>-0.01883144001938698</v>
+        <v>0.02471074862911273</v>
       </c>
       <c r="D32">
-        <v>0.005704903539511278</v>
+        <v>0.003735385692144964</v>
       </c>
       <c r="E32">
-        <v>0.05214125984111373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0164690463902739</v>
+      </c>
+      <c r="F32">
+        <v>-0.03960915140484469</v>
+      </c>
+      <c r="G32">
+        <v>-0.0941785886345809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01540660502669824</v>
+        <v>-0.0269451789539791</v>
       </c>
       <c r="C33">
-        <v>-0.02362602266704318</v>
+        <v>0.04981730028997926</v>
       </c>
       <c r="D33">
-        <v>0.04449441550217238</v>
+        <v>-0.01567403564873109</v>
       </c>
       <c r="E33">
-        <v>-0.02838779094301621</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03437773267275513</v>
+      </c>
+      <c r="F33">
+        <v>-0.01792144447370606</v>
+      </c>
+      <c r="G33">
+        <v>-0.1226136341227263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003368933726499694</v>
+        <v>-0.03994050844708734</v>
       </c>
       <c r="C34">
-        <v>-0.01454039047872243</v>
+        <v>0.0616169849550024</v>
       </c>
       <c r="D34">
-        <v>0.05694750845812395</v>
+        <v>0.004649564383631012</v>
       </c>
       <c r="E34">
-        <v>0.01307059384776001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0007261082143181366</v>
+      </c>
+      <c r="F34">
+        <v>-0.02059206076820464</v>
+      </c>
+      <c r="G34">
+        <v>-0.0841968502582721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01381332368464219</v>
+        <v>-0.01555395909311065</v>
       </c>
       <c r="C36">
-        <v>-0.01829935751635204</v>
+        <v>0.009203296913506331</v>
       </c>
       <c r="D36">
-        <v>0.007476546436916589</v>
+        <v>-0.01220685721564537</v>
       </c>
       <c r="E36">
-        <v>0.00412921562421458</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00346104856966793</v>
+      </c>
+      <c r="F36">
+        <v>0.005798028026474757</v>
+      </c>
+      <c r="G36">
+        <v>-0.07376777025369355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001288261715493732</v>
+        <v>-0.03209987683404123</v>
       </c>
       <c r="C38">
-        <v>-0.03432869432942437</v>
+        <v>0.03175426367373065</v>
       </c>
       <c r="D38">
-        <v>0.05223606340559592</v>
+        <v>0.007553418131727969</v>
       </c>
       <c r="E38">
-        <v>0.005488519373324607</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002827820349534027</v>
+      </c>
+      <c r="F38">
+        <v>0.01736643401677196</v>
+      </c>
+      <c r="G38">
+        <v>-0.07441913204721227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004218786180522245</v>
+        <v>-0.03464009235771789</v>
       </c>
       <c r="C39">
-        <v>0.02480406964127763</v>
+        <v>0.08089907898342474</v>
       </c>
       <c r="D39">
-        <v>0.1028821786183937</v>
+        <v>-0.01173027440707626</v>
       </c>
       <c r="E39">
-        <v>-0.007174941844673338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02046700135411785</v>
+      </c>
+      <c r="F39">
+        <v>-0.02670267184111494</v>
+      </c>
+      <c r="G39">
+        <v>-0.07440572643067118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01290341541707959</v>
+        <v>-0.01529179674890411</v>
       </c>
       <c r="C40">
-        <v>-0.0137390150479573</v>
+        <v>0.0432417336564155</v>
       </c>
       <c r="D40">
-        <v>0.04324254122674025</v>
+        <v>-0.01486388183797857</v>
       </c>
       <c r="E40">
-        <v>0.005211613643251708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02100824446107479</v>
+      </c>
+      <c r="F40">
+        <v>0.01362332664327294</v>
+      </c>
+      <c r="G40">
+        <v>-0.1097698104089076</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.007101313675073995</v>
+        <v>-0.01919531337713753</v>
       </c>
       <c r="C41">
-        <v>-0.0214756227595428</v>
+        <v>0.001144298261224099</v>
       </c>
       <c r="D41">
-        <v>-0.01196103540924528</v>
+        <v>-0.004274619371599992</v>
       </c>
       <c r="E41">
-        <v>0.002475440242625835</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001497929049583731</v>
+      </c>
+      <c r="F41">
+        <v>0.01223568850405832</v>
+      </c>
+      <c r="G41">
+        <v>-0.06247363452901708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09020707043283928</v>
+        <v>-0.008632941214182758</v>
       </c>
       <c r="C42">
-        <v>0.03954730269336285</v>
+        <v>0.0375340728007391</v>
       </c>
       <c r="D42">
-        <v>0.1810327431022583</v>
+        <v>-0.09192120513950074</v>
       </c>
       <c r="E42">
-        <v>-0.3881191765249897</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01811370153559947</v>
+      </c>
+      <c r="F42">
+        <v>0.0375966193073209</v>
+      </c>
+      <c r="G42">
+        <v>0.1548813685875517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008504532179113946</v>
+        <v>-0.0327882238357264</v>
       </c>
       <c r="C43">
-        <v>-0.02594964413781042</v>
+        <v>0.01694078425068294</v>
       </c>
       <c r="D43">
-        <v>-0.01022137840001024</v>
+        <v>-0.006045878867997335</v>
       </c>
       <c r="E43">
-        <v>5.817226330528107e-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01512424430836107</v>
+      </c>
+      <c r="F43">
+        <v>0.002577039552133534</v>
+      </c>
+      <c r="G43">
+        <v>-0.09212134299377049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003665535656458268</v>
+        <v>-0.01186866773772614</v>
       </c>
       <c r="C44">
-        <v>-0.00269448316976231</v>
+        <v>0.05884400824853447</v>
       </c>
       <c r="D44">
-        <v>0.05367261850370819</v>
+        <v>-0.006709366789454747</v>
       </c>
       <c r="E44">
-        <v>0.006017897541441788</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01731903258392399</v>
+      </c>
+      <c r="F44">
+        <v>0.007336973846072287</v>
+      </c>
+      <c r="G44">
+        <v>-0.08971860168719009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01172282309778852</v>
+        <v>-0.007777441614255008</v>
       </c>
       <c r="C46">
-        <v>-0.01252382722324145</v>
+        <v>0.01717149350452627</v>
       </c>
       <c r="D46">
-        <v>0.005710784202218638</v>
+        <v>-0.01236410636092891</v>
       </c>
       <c r="E46">
-        <v>-0.002712476461040158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0001496651237221226</v>
+      </c>
+      <c r="F46">
+        <v>0.01443248081268579</v>
+      </c>
+      <c r="G46">
+        <v>-0.08442675228795261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005986405526660469</v>
+        <v>-0.07674287622313201</v>
       </c>
       <c r="C47">
-        <v>-0.04660226157091853</v>
+        <v>0.06666303320148446</v>
       </c>
       <c r="D47">
-        <v>0.07104488012325826</v>
+        <v>0.005275281096957943</v>
       </c>
       <c r="E47">
-        <v>0.008108896649374479</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008799216194566681</v>
+      </c>
+      <c r="F47">
+        <v>0.05464122989478309</v>
+      </c>
+      <c r="G47">
+        <v>-0.07354917721704173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005105715716169711</v>
+        <v>-0.0200130242095363</v>
       </c>
       <c r="C48">
-        <v>-0.02384918326980909</v>
+        <v>0.01264647959094914</v>
       </c>
       <c r="D48">
-        <v>0.01992047110397611</v>
+        <v>-0.001600947511545571</v>
       </c>
       <c r="E48">
-        <v>0.002154552358339017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0005437149612729662</v>
+      </c>
+      <c r="F48">
+        <v>0.01999364744535721</v>
+      </c>
+      <c r="G48">
+        <v>-0.07851594214366546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.007991276156601284</v>
+        <v>-0.07492332759305695</v>
       </c>
       <c r="C50">
-        <v>-0.04975981105845552</v>
+        <v>0.07012062785762971</v>
       </c>
       <c r="D50">
-        <v>0.06788727713953796</v>
+        <v>0.002967815673638594</v>
       </c>
       <c r="E50">
-        <v>0.03388938332170349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01057891839166189</v>
+      </c>
+      <c r="F50">
+        <v>0.05666593756800593</v>
+      </c>
+      <c r="G50">
+        <v>-0.08987086359782907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008129256092409068</v>
+        <v>-0.01367591654841045</v>
       </c>
       <c r="C51">
-        <v>-0.01366147982285313</v>
+        <v>0.03544201690632093</v>
       </c>
       <c r="D51">
-        <v>0.01528966301359999</v>
+        <v>-0.01031861045954192</v>
       </c>
       <c r="E51">
-        <v>0.003625675745530081</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01816355909275455</v>
+      </c>
+      <c r="F51">
+        <v>-0.02558507726173716</v>
+      </c>
+      <c r="G51">
+        <v>-0.1111587830184716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.009771622884390182</v>
+        <v>-0.08138036549164612</v>
       </c>
       <c r="C53">
-        <v>-0.05717131346311267</v>
+        <v>0.08475384485126375</v>
       </c>
       <c r="D53">
-        <v>0.124744127217878</v>
+        <v>0.004101784847243601</v>
       </c>
       <c r="E53">
-        <v>0.01790955348671833</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02799380384542026</v>
+      </c>
+      <c r="F53">
+        <v>0.06650129475107107</v>
+      </c>
+      <c r="G53">
+        <v>-0.07189667026979338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002898188353352922</v>
+        <v>-0.02928494008840437</v>
       </c>
       <c r="C54">
-        <v>-0.03360457878437924</v>
+        <v>0.01600145950068886</v>
       </c>
       <c r="D54">
-        <v>0.00083411492302631</v>
+        <v>0.001269716002123595</v>
       </c>
       <c r="E54">
-        <v>-0.003329357674509978</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01209055399145717</v>
+      </c>
+      <c r="F54">
+        <v>-0.001535446556899846</v>
+      </c>
+      <c r="G54">
+        <v>-0.08585235156029047</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.00514739964044422</v>
+        <v>-0.07061662206802218</v>
       </c>
       <c r="C55">
-        <v>-0.03547723572418109</v>
+        <v>0.06878799888513605</v>
       </c>
       <c r="D55">
-        <v>0.09953768759379869</v>
+        <v>0.005344928009201528</v>
       </c>
       <c r="E55">
-        <v>0.000222451288212017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02393029974714971</v>
+      </c>
+      <c r="F55">
+        <v>0.0624521461090636</v>
+      </c>
+      <c r="G55">
+        <v>-0.04484718254262861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.009595089176098782</v>
+        <v>-0.1375134585667458</v>
       </c>
       <c r="C56">
-        <v>-0.0815668390010707</v>
+        <v>0.1086954253199285</v>
       </c>
       <c r="D56">
-        <v>0.15280849556389</v>
+        <v>0.01297682983194689</v>
       </c>
       <c r="E56">
-        <v>0.009101261403983055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03345074188536142</v>
+      </c>
+      <c r="F56">
+        <v>0.08107646086075278</v>
+      </c>
+      <c r="G56">
+        <v>-0.02047277530615177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02436301753687702</v>
+        <v>-0.006811050128660911</v>
       </c>
       <c r="C57">
-        <v>-0.006441301580003891</v>
+        <v>0.009494541565430231</v>
       </c>
       <c r="D57">
-        <v>0.06608226618526611</v>
+        <v>-0.02352708197736269</v>
       </c>
       <c r="E57">
-        <v>-0.007955863015414349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02452104367039997</v>
+      </c>
+      <c r="F57">
+        <v>-0.008428592297263742</v>
+      </c>
+      <c r="G57">
+        <v>-0.02922534200537547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01528368873222595</v>
+        <v>-0.05476616657446789</v>
       </c>
       <c r="C58">
-        <v>-0.05809284780715531</v>
+        <v>0.05571061443277431</v>
       </c>
       <c r="D58">
-        <v>0.1802970321116609</v>
+        <v>-0.02690430459309156</v>
       </c>
       <c r="E58">
-        <v>-0.506899768308842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9321392287080844</v>
+      </c>
+      <c r="F58">
+        <v>0.2456145045090876</v>
+      </c>
+      <c r="G58">
+        <v>0.1219004176919846</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05142739509370905</v>
+        <v>-0.1607541437146604</v>
       </c>
       <c r="C59">
-        <v>-0.26672516719148</v>
+        <v>-0.2028497937041301</v>
       </c>
       <c r="D59">
-        <v>-0.1242496412647685</v>
+        <v>0.01075196555273863</v>
       </c>
       <c r="E59">
-        <v>0.005815935583165201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01961373365156901</v>
+      </c>
+      <c r="F59">
+        <v>-0.004411641714169433</v>
+      </c>
+      <c r="G59">
+        <v>-0.04149681919042993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04764103309792633</v>
+        <v>-0.2860770470606996</v>
       </c>
       <c r="C60">
-        <v>-0.1571722766661544</v>
+        <v>0.1078795938018729</v>
       </c>
       <c r="D60">
-        <v>0.1199660201340148</v>
+        <v>-0.01303294708267932</v>
       </c>
       <c r="E60">
-        <v>0.015026411414276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002696044974249055</v>
+      </c>
+      <c r="F60">
+        <v>-0.3498607166419196</v>
+      </c>
+      <c r="G60">
+        <v>0.129712684415665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003756919754690142</v>
+        <v>-0.03679562727599137</v>
       </c>
       <c r="C61">
-        <v>-0.00347267987754039</v>
+        <v>0.06737026970778828</v>
       </c>
       <c r="D61">
-        <v>0.07853163995938786</v>
+        <v>-0.005246323344669899</v>
       </c>
       <c r="E61">
-        <v>0.005715565301148954</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01302572724346747</v>
+      </c>
+      <c r="F61">
+        <v>-0.01493306048631922</v>
+      </c>
+      <c r="G61">
+        <v>-0.07585056216023953</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008294849160278651</v>
+        <v>-0.01390907330433638</v>
       </c>
       <c r="C63">
-        <v>-0.00506520925111931</v>
+        <v>0.02961029706120624</v>
       </c>
       <c r="D63">
-        <v>0.02392017174278559</v>
+        <v>-0.008361429113475335</v>
       </c>
       <c r="E63">
-        <v>0.0109616135641082</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-2.076286997426006e-05</v>
+      </c>
+      <c r="F63">
+        <v>0.01589579132633904</v>
+      </c>
+      <c r="G63">
+        <v>-0.07766615961086626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01016031262490302</v>
+        <v>-0.04705208055678176</v>
       </c>
       <c r="C64">
-        <v>-0.02706117436323433</v>
+        <v>0.0473149676980369</v>
       </c>
       <c r="D64">
-        <v>0.05884709568791525</v>
+        <v>-0.006375551573134994</v>
       </c>
       <c r="E64">
-        <v>-0.005134554181595614</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0009836201072924964</v>
+      </c>
+      <c r="F64">
+        <v>-0.006161762476066947</v>
+      </c>
+      <c r="G64">
+        <v>-0.07810803877154211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01755571569059584</v>
+        <v>-0.07571607098262309</v>
       </c>
       <c r="C65">
-        <v>-0.001525824080955841</v>
+        <v>0.06079006088793452</v>
       </c>
       <c r="D65">
-        <v>0.09995651367995544</v>
+        <v>-0.01634303224687634</v>
       </c>
       <c r="E65">
-        <v>0.01506098335018216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02827693472651766</v>
+      </c>
+      <c r="F65">
+        <v>-0.02942398917000877</v>
+      </c>
+      <c r="G65">
+        <v>-0.02772873686423837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004719537803491214</v>
+        <v>-0.05061710248267624</v>
       </c>
       <c r="C66">
-        <v>0.01995182494891945</v>
+        <v>0.1105793411525359</v>
       </c>
       <c r="D66">
-        <v>0.1387632054001381</v>
+        <v>-0.01178596511400606</v>
       </c>
       <c r="E66">
-        <v>-0.00272529167398499</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03004758142168885</v>
+      </c>
+      <c r="F66">
+        <v>-0.03642792302657226</v>
+      </c>
+      <c r="G66">
+        <v>-0.08953410158463994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.005784189957293711</v>
+        <v>-0.05494262185155988</v>
       </c>
       <c r="C67">
-        <v>-0.05396088543494802</v>
+        <v>0.03546331978189209</v>
       </c>
       <c r="D67">
-        <v>0.06586292905888497</v>
+        <v>0.005967957354823945</v>
       </c>
       <c r="E67">
-        <v>0.008390446801496287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004359655476456229</v>
+      </c>
+      <c r="F67">
+        <v>0.017546189562444</v>
+      </c>
+      <c r="G67">
+        <v>-0.06700457324678014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06517345158968735</v>
+        <v>-0.154100793143856</v>
       </c>
       <c r="C68">
-        <v>-0.2372021697726256</v>
+        <v>-0.2685071073401822</v>
       </c>
       <c r="D68">
-        <v>-0.1618064585899144</v>
+        <v>-0.006705576167346828</v>
       </c>
       <c r="E68">
-        <v>-0.02122602800410759</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.012907312775863</v>
+      </c>
+      <c r="F68">
+        <v>0.03168848917946612</v>
+      </c>
+      <c r="G68">
+        <v>-0.03025395145988983</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001301854852051418</v>
+        <v>-0.08084019667352609</v>
       </c>
       <c r="C69">
-        <v>-0.03963627281787051</v>
+        <v>0.06984952366321297</v>
       </c>
       <c r="D69">
-        <v>0.07439036905796055</v>
+        <v>0.009165404822813977</v>
       </c>
       <c r="E69">
-        <v>0.0157877166719178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02374925674438164</v>
+      </c>
+      <c r="F69">
+        <v>0.03709976178018673</v>
+      </c>
+      <c r="G69">
+        <v>-0.08075509227721432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04958706785984041</v>
+        <v>-0.1403687169506409</v>
       </c>
       <c r="C71">
-        <v>-0.2092022671261712</v>
+        <v>-0.2274056219347144</v>
       </c>
       <c r="D71">
-        <v>-0.1120705620859084</v>
+        <v>0.001989647680770684</v>
       </c>
       <c r="E71">
-        <v>-0.01333505313801192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03290799780480914</v>
+      </c>
+      <c r="F71">
+        <v>0.0193078860962682</v>
+      </c>
+      <c r="G71">
+        <v>-0.06336734494708188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0004402568847534292</v>
+        <v>-0.08465092777836516</v>
       </c>
       <c r="C72">
-        <v>-0.03091118444295259</v>
+        <v>0.07442045161627095</v>
       </c>
       <c r="D72">
-        <v>0.1131596959546197</v>
+        <v>0.00792708553268799</v>
       </c>
       <c r="E72">
-        <v>0.01088071538587752</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00246796318816047</v>
+      </c>
+      <c r="F72">
+        <v>-0.04203391062590133</v>
+      </c>
+      <c r="G72">
+        <v>-0.0668196624213588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06047355593096054</v>
+        <v>-0.3738441266948908</v>
       </c>
       <c r="C73">
-        <v>-0.1676792772997864</v>
+        <v>0.1200524783174516</v>
       </c>
       <c r="D73">
-        <v>0.2291130692127732</v>
+        <v>-0.02242044131913008</v>
       </c>
       <c r="E73">
-        <v>-0.01416215600542187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.0749991046285423</v>
+      </c>
+      <c r="F73">
+        <v>-0.5741627490643459</v>
+      </c>
+      <c r="G73">
+        <v>0.2467561910739813</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.00646756523065153</v>
+        <v>-0.1049678057315272</v>
       </c>
       <c r="C74">
-        <v>-0.06595393106029079</v>
+        <v>0.1104862723755355</v>
       </c>
       <c r="D74">
-        <v>0.1668370316588185</v>
+        <v>0.009821011695681208</v>
       </c>
       <c r="E74">
-        <v>-0.002429770751423374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01032595518941676</v>
+      </c>
+      <c r="F74">
+        <v>0.07109137481304359</v>
+      </c>
+      <c r="G74">
+        <v>-0.06421061035494177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01729719598654636</v>
+        <v>-0.2489253279636096</v>
       </c>
       <c r="C75">
-        <v>-0.1565442593128226</v>
+        <v>0.1510801323871014</v>
       </c>
       <c r="D75">
-        <v>0.2854582240127946</v>
+        <v>0.03152497142334682</v>
       </c>
       <c r="E75">
-        <v>-0.005439295185697058</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06028446018822686</v>
+      </c>
+      <c r="F75">
+        <v>0.1752433621956251</v>
+      </c>
+      <c r="G75">
+        <v>0.05850392037033355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005635437036558631</v>
+        <v>-0.1214342760884762</v>
       </c>
       <c r="C76">
-        <v>-0.1037445082869995</v>
+        <v>0.1115402673038659</v>
       </c>
       <c r="D76">
-        <v>0.2145723295014577</v>
+        <v>0.02011844022252294</v>
       </c>
       <c r="E76">
-        <v>0.03894555618154637</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03866914227376891</v>
+      </c>
+      <c r="F76">
+        <v>0.1165808301437446</v>
+      </c>
+      <c r="G76">
+        <v>-0.04111517665979326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01647083790155703</v>
+        <v>-0.06825606307175479</v>
       </c>
       <c r="C77">
-        <v>-0.02812081093616866</v>
+        <v>0.06178060515234503</v>
       </c>
       <c r="D77">
-        <v>0.06434335415835299</v>
+        <v>-0.01165887593655953</v>
       </c>
       <c r="E77">
-        <v>-0.003536863264762653</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04279567551021427</v>
+      </c>
+      <c r="F77">
+        <v>-0.009349780419870855</v>
+      </c>
+      <c r="G77">
+        <v>-0.06164374814857989</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.00627557439273607</v>
+        <v>-0.04216426229039653</v>
       </c>
       <c r="C78">
-        <v>-0.01445447497614097</v>
+        <v>0.05210687386668669</v>
       </c>
       <c r="D78">
-        <v>0.05758269012479414</v>
+        <v>-0.005556887324054939</v>
       </c>
       <c r="E78">
-        <v>-0.0001241138217739973</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02143605395448807</v>
+      </c>
+      <c r="F78">
+        <v>-0.0362605415617796</v>
+      </c>
+      <c r="G78">
+        <v>-0.0802525108932753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01634309166073155</v>
+        <v>-0.05192839632674642</v>
       </c>
       <c r="C80">
-        <v>-0.06292243606537855</v>
+        <v>0.07506282343834762</v>
       </c>
       <c r="D80">
-        <v>0.2014994257711023</v>
+        <v>-0.009462424972797027</v>
       </c>
       <c r="E80">
-        <v>0.7406419308453583</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04220239221668081</v>
+      </c>
+      <c r="F80">
+        <v>-0.007056365772982229</v>
+      </c>
+      <c r="G80">
+        <v>-0.5273985259282461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01170290507054507</v>
+        <v>-0.14023965390086</v>
       </c>
       <c r="C81">
-        <v>-0.09539003357085367</v>
+        <v>0.09719365536817061</v>
       </c>
       <c r="D81">
-        <v>0.1693526867193352</v>
+        <v>0.01575143718768825</v>
       </c>
       <c r="E81">
-        <v>0.01821854142033073</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03558498664678163</v>
+      </c>
+      <c r="F81">
+        <v>0.1350600388494416</v>
+      </c>
+      <c r="G81">
+        <v>-0.01945307232342523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1250613824707538</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07219533997032855</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008349758430235159</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08955296097052108</v>
+      </c>
+      <c r="F82">
+        <v>0.03484797638113051</v>
+      </c>
+      <c r="G82">
+        <v>-0.03358439197487812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008687971366069542</v>
+        <v>-0.03642798300014929</v>
       </c>
       <c r="C83">
-        <v>-0.02322797511054821</v>
+        <v>0.02960775309040595</v>
       </c>
       <c r="D83">
-        <v>0.03550342931096913</v>
+        <v>-0.005802689165380666</v>
       </c>
       <c r="E83">
-        <v>-0.005914363001475467</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02842326466720121</v>
+      </c>
+      <c r="F83">
+        <v>-0.03232697929548436</v>
+      </c>
+      <c r="G83">
+        <v>-0.05746399521591718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.0236604156056624</v>
+        <v>-0.2155329872279165</v>
       </c>
       <c r="C85">
-        <v>-0.1262727711246043</v>
+        <v>0.1456972148045078</v>
       </c>
       <c r="D85">
-        <v>0.2609068765005753</v>
+        <v>0.01934083518462248</v>
       </c>
       <c r="E85">
-        <v>0.004850946881278973</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1008850782042373</v>
+      </c>
+      <c r="F85">
+        <v>0.1381718422856937</v>
+      </c>
+      <c r="G85">
+        <v>0.1142402175769648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01047625639322318</v>
+        <v>-0.01350448661461283</v>
       </c>
       <c r="C86">
-        <v>-0.02570883456319742</v>
+        <v>0.02847814120266416</v>
       </c>
       <c r="D86">
-        <v>0.05128676314760974</v>
+        <v>-0.01260892590369594</v>
       </c>
       <c r="E86">
-        <v>-0.03892767991601476</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04716134003340453</v>
+      </c>
+      <c r="F86">
+        <v>-0.03198540102637745</v>
+      </c>
+      <c r="G86">
+        <v>-0.1695397987928438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008645484691183238</v>
+        <v>-0.02285303233642677</v>
       </c>
       <c r="C87">
-        <v>-0.002007675471955649</v>
+        <v>0.02355212257904797</v>
       </c>
       <c r="D87">
-        <v>0.0585440983910037</v>
+        <v>-0.01227071457214943</v>
       </c>
       <c r="E87">
-        <v>-0.01116531704234521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08592186140720867</v>
+      </c>
+      <c r="F87">
+        <v>-0.01654610148547994</v>
+      </c>
+      <c r="G87">
+        <v>-0.1067808501004533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02914782008058979</v>
+        <v>-0.09136045025467669</v>
       </c>
       <c r="C88">
-        <v>-0.02958160585804052</v>
+        <v>0.06646113713825383</v>
       </c>
       <c r="D88">
-        <v>0.05488878037057398</v>
+        <v>-0.02248518941402325</v>
       </c>
       <c r="E88">
-        <v>0.003110050678726014</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.008488909433003367</v>
+      </c>
+      <c r="F88">
+        <v>0.01837608053266439</v>
+      </c>
+      <c r="G88">
+        <v>-0.07385696978431504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09555839963960833</v>
+        <v>-0.2348432082766175</v>
       </c>
       <c r="C89">
-        <v>-0.393951142220477</v>
+        <v>-0.3680277282602777</v>
       </c>
       <c r="D89">
-        <v>-0.2091010291354808</v>
+        <v>-0.0005178696820903062</v>
       </c>
       <c r="E89">
-        <v>0.02256586928534247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01412227361528359</v>
+      </c>
+      <c r="F89">
+        <v>0.02887308874048287</v>
+      </c>
+      <c r="G89">
+        <v>-0.06581712423382598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07295704185073704</v>
+        <v>-0.2079542752990402</v>
       </c>
       <c r="C90">
-        <v>-0.3073054344617853</v>
+        <v>-0.3194215832812082</v>
       </c>
       <c r="D90">
-        <v>-0.1903962638896366</v>
+        <v>0.004005430870425149</v>
       </c>
       <c r="E90">
-        <v>-0.0182749382802349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.003534289944116105</v>
+      </c>
+      <c r="F90">
+        <v>0.05110160366485969</v>
+      </c>
+      <c r="G90">
+        <v>-0.02605612707674537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01390443743980044</v>
+        <v>-0.188640299984607</v>
       </c>
       <c r="C91">
-        <v>-0.1389273970680683</v>
+        <v>0.1393654062417452</v>
       </c>
       <c r="D91">
-        <v>0.2150300307497716</v>
+        <v>0.02362078082512648</v>
       </c>
       <c r="E91">
-        <v>0.022807379454269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06681419493724593</v>
+      </c>
+      <c r="F91">
+        <v>0.1510138018956052</v>
+      </c>
+      <c r="G91">
+        <v>-0.01152342182441732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04147536143847078</v>
+        <v>-0.2018826960882432</v>
       </c>
       <c r="C92">
-        <v>-0.3207025235899674</v>
+        <v>-0.2562860967120039</v>
       </c>
       <c r="D92">
-        <v>-0.08387279362109802</v>
+        <v>0.03796513905312094</v>
       </c>
       <c r="E92">
-        <v>-0.03301300761229947</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03334924904284747</v>
+      </c>
+      <c r="F92">
+        <v>0.06057615047226329</v>
+      </c>
+      <c r="G92">
+        <v>-0.1281420155514188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.07114862493729147</v>
+        <v>-0.2320583265228279</v>
       </c>
       <c r="C93">
-        <v>-0.3273073653269851</v>
+        <v>-0.315656242936276</v>
       </c>
       <c r="D93">
-        <v>-0.1669517487495822</v>
+        <v>0.0107980459701569</v>
       </c>
       <c r="E93">
-        <v>-0.04245572280051456</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.007666134682661438</v>
+      </c>
+      <c r="F93">
+        <v>0.03279590580582357</v>
+      </c>
+      <c r="G93">
+        <v>-0.02659636903457578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03776789150362637</v>
+        <v>-0.3174703629169239</v>
       </c>
       <c r="C94">
-        <v>-0.1586427763935563</v>
+        <v>0.1763071330911031</v>
       </c>
       <c r="D94">
-        <v>0.2293559063456348</v>
+        <v>0.01859217330386697</v>
       </c>
       <c r="E94">
-        <v>-0.01075929543050565</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1734326963001542</v>
+      </c>
+      <c r="F94">
+        <v>0.4707035790291023</v>
+      </c>
+      <c r="G94">
+        <v>0.3290665959130462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.002030444899150636</v>
+        <v>-0.09950175955692964</v>
       </c>
       <c r="C95">
-        <v>-0.03557978763969108</v>
+        <v>0.08624293956137415</v>
       </c>
       <c r="D95">
-        <v>0.1119067206520772</v>
+        <v>0.009287774517947095</v>
       </c>
       <c r="E95">
-        <v>-0.1335438908386058</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07722434779183016</v>
+      </c>
+      <c r="F95">
+        <v>-0.1986211322663174</v>
+      </c>
+      <c r="G95">
+        <v>0.05694673415445477</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02055871892872807</v>
+        <v>-0.1972499015793318</v>
       </c>
       <c r="C98">
-        <v>-0.1545528054009963</v>
+        <v>0.04840141237006869</v>
       </c>
       <c r="D98">
-        <v>0.1516041326364174</v>
+        <v>0.01218306126955751</v>
       </c>
       <c r="E98">
-        <v>-0.03535744637197426</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07066802941458308</v>
+      </c>
+      <c r="F98">
+        <v>-0.2401923975541068</v>
+      </c>
+      <c r="G98">
+        <v>0.01042175457074364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009260994883738759</v>
+        <v>-0.008993524358698992</v>
       </c>
       <c r="C101">
-        <v>-0.01695186306111215</v>
+        <v>0.02171270258863133</v>
       </c>
       <c r="D101">
-        <v>0.01384392900297168</v>
+        <v>-0.008455292474204094</v>
       </c>
       <c r="E101">
-        <v>0.002743621381332319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0007768178760509719</v>
+      </c>
+      <c r="F101">
+        <v>0.01583810187907563</v>
+      </c>
+      <c r="G101">
+        <v>-0.08164503134981581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02022469310713722</v>
+        <v>-0.1172118320187267</v>
       </c>
       <c r="C102">
-        <v>-0.06559990636775749</v>
+        <v>0.08441616571505506</v>
       </c>
       <c r="D102">
-        <v>0.1210553981005394</v>
+        <v>-0.0004416500664268337</v>
       </c>
       <c r="E102">
-        <v>0.006372542994232325</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03561207104853521</v>
+      </c>
+      <c r="F102">
+        <v>0.04112122226382006</v>
+      </c>
+      <c r="G102">
+        <v>0.002032163526554059</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002017522209855042</v>
+        <v>-0.00315615409673246</v>
       </c>
       <c r="C103">
-        <v>-0.01044954414975561</v>
+        <v>0.002540153241884587</v>
       </c>
       <c r="D103">
-        <v>0.0169910887293447</v>
+        <v>2.851716947041143e-05</v>
       </c>
       <c r="E103">
-        <v>0.01484853389698195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001192341238141713</v>
+      </c>
+      <c r="F103">
+        <v>0.007898513242408239</v>
+      </c>
+      <c r="G103">
+        <v>-0.01514032944347762</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.968976667499809</v>
+        <v>-0.02088053685123396</v>
       </c>
       <c r="C104">
-        <v>0.2055342765741638</v>
+        <v>-0.02854876368683585</v>
       </c>
       <c r="D104">
-        <v>-0.02429681267388075</v>
+        <v>-0.9874148931534923</v>
       </c>
       <c r="E104">
-        <v>0.03751317837920773</v>
+        <v>0.0511937914625604</v>
+      </c>
+      <c r="F104">
+        <v>0.03897010558330538</v>
+      </c>
+      <c r="G104">
+        <v>0.02721469082425143</v>
       </c>
     </row>
   </sheetData>
